--- a/src/test/data/employer_bind_error.xlsx
+++ b/src/test/data/employer_bind_error.xlsx
@@ -251,10 +251,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>更新</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> あああ, いいいい</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -272,6 +268,10 @@
   </si>
   <si>
     <t>bbb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新あ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -799,19 +799,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>8</v>
@@ -853,7 +853,7 @@
         <v>40213</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="10">
         <v>40213</v>
@@ -1089,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>28</v>
